--- a/7.1 Diccionario Base de Atractivos turísticos (2021).xlsx
+++ b/7.1 Diccionario Base de Atractivos turísticos (2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rodriguez\Documents\GitHub\Formularios_DS4A_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3071B7FC-7CC7-4023-9F1C-FBD9D3A48436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A265B5-539E-4EB7-ADC4-5020B98DB5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>7.1 Diccionario Base de Atractivos turísticos (2021)</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Patrimonio</t>
-  </si>
-  <si>
     <t>Latitud</t>
   </si>
   <si>
     <t>Longitud</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
     <t>Dirección del atractivo</t>
   </si>
   <si>
@@ -55,6 +49,30 @@
   </si>
   <si>
     <t>Georreferenciación del Atractivo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Direccion Atractivo</t>
+  </si>
+  <si>
+    <t>Tipo de Patrimonio</t>
+  </si>
+  <si>
+    <t>Nombre Propietario</t>
+  </si>
+  <si>
+    <t>ID del atractivo</t>
+  </si>
+  <si>
+    <t>Codigo del Atractivo</t>
+  </si>
+  <si>
+    <t>Nombre de la entidad o  institución a cargo del atractivo</t>
   </si>
 </sst>
 </file>
@@ -98,12 +116,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B10:B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,48 +423,74 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
